--- a/MyScrumBudget_1.0.xlsx
+++ b/MyScrumBudget_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\myscrumbudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B48938-CBDC-47F4-98A3-78B127EA9724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BB2D70-E2C5-4021-BECC-A35D5E26663B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{7EFC9F54-FD64-4CB3-8707-A4DEAF994445}"/>
   </bookViews>
@@ -1834,9 +1834,6 @@
     <t>burn-rate.  As long as your agile team's weekly</t>
   </si>
   <si>
-    <t>burn-rate roughly matches our budgeted burn-rate,</t>
-  </si>
-  <si>
     <t xml:space="preserve">you won't run out of money before you run out of </t>
   </si>
   <si>
@@ -2038,6 +2035,9 @@
   </si>
   <si>
     <t>would match its schedule constraint.</t>
+  </si>
+  <si>
+    <t>burn-rate roughly matches your budgeted burn-rate,</t>
   </si>
 </sst>
 </file>
@@ -2522,6 +2522,25 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2530,9 +2549,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2573,22 +2589,6 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3095,99 +3095,99 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="15:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="O3" s="54" t="s">
+      <c r="O3" s="37" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="5" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="36" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="36" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O6" s="53" t="s">
+    <row r="7" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="36" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="7" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O7" s="53" t="s">
+    <row r="8" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="36"/>
+    </row>
+    <row r="9" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="36" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="10" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="36" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="36" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="36" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="36" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="14" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="36" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="15" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="36"/>
+    </row>
+    <row r="16" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="36" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O17" s="36" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O18" s="36" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="8" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O8" s="53"/>
-    </row>
-    <row r="9" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O9" s="53" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="10" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O10" s="53" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="11" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O11" s="53" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="12" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O12" s="53" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="13" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O13" s="53" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="14" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O14" s="53" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="15" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O15" s="53"/>
-    </row>
-    <row r="16" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O16" s="53" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O17" s="53" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O18" s="53" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O19" s="36" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O19" s="53" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O20" s="36" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O20" s="53" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O21" s="36"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O22" s="36" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O21" s="53"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O22" s="53" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O23" s="35" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O23" s="52" t="s">
-        <v>569</v>
-      </c>
-      <c r="P23" s="52"/>
+      <c r="P23" s="35"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
@@ -3257,17 +3257,17 @@
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3305,8 +3305,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>575</v>
+      <c r="A1" s="48" t="s">
+        <v>574</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="27"/>
@@ -3351,38 +3351,38 @@
       <c r="AP1" s="26"/>
     </row>
     <row r="2" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="26"/>
       <c r="C2" s="27"/>
       <c r="D2" s="26"/>
       <c r="E2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="49">
         <v>44013</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2" s="46">
         <f>SUM(E109:AO208)</f>
         <v>622080</v>
       </c>
-      <c r="M2" s="36"/>
+      <c r="M2" s="47"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="Q2" s="35">
+      <c r="Q2" s="46">
         <f>NPV(F3,E209:AO209)</f>
         <v>548225.68889234669</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="47"/>
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
       <c r="U2" s="26"/>
@@ -3409,28 +3409,28 @@
       <c r="AP2" s="26"/>
     </row>
     <row r="3" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
       <c r="D3" s="26"/>
       <c r="E3" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="51">
         <v>0.02</v>
       </c>
-      <c r="G3" s="42"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="46">
         <f>L2/ROUND(DATEDIF(F2,TEXT(EDATE(F2,MAX(SUM(E210:AO210),1)),"MM/DD/YYYY"),"d")/7,0)</f>
         <v>11963.076923076924</v>
       </c>
-      <c r="M3" s="36"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29"/>
@@ -3462,7 +3462,7 @@
       <c r="AP3" s="29"/>
     </row>
     <row r="4" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
       <c r="D4" s="26"/>
@@ -24665,17 +24665,17 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="38" t="s">
+      <c r="A229" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B229" s="38"/>
-      <c r="C229" s="38"/>
-      <c r="D229" s="38"/>
-      <c r="E229" s="38"/>
-      <c r="F229" s="38"/>
-      <c r="G229" s="38"/>
-      <c r="H229" s="38"/>
-      <c r="I229" s="38"/>
+      <c r="B229" s="45"/>
+      <c r="C229" s="45"/>
+      <c r="D229" s="45"/>
+      <c r="E229" s="45"/>
+      <c r="F229" s="45"/>
+      <c r="G229" s="45"/>
+      <c r="H229" s="45"/>
+      <c r="I229" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -24731,8 +24731,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="26" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>576</v>
+      <c r="A1" s="42" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -24750,12 +24750,12 @@
       <c r="B4" s="13">
         <v>60</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="53" t="s">
         <v>537</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -24764,10 +24764,10 @@
       <c r="B5" s="13">
         <v>80</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -24776,10 +24776,10 @@
       <c r="B6" s="13">
         <v>100</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -24788,16 +24788,16 @@
       <c r="B7" s="13">
         <v>70</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="41" t="s">
         <v>536</v>
       </c>
     </row>
@@ -24805,7 +24805,7 @@
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="41" t="s">
         <v>536</v>
       </c>
     </row>
@@ -24813,7 +24813,7 @@
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="41" t="s">
         <v>536</v>
       </c>
     </row>
@@ -24880,14 +24880,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -24918,11 +24918,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="26" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>577</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="A1" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -24936,14 +24936,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="55">
+      <c r="A3" s="38">
         <v>44019</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>573</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/MyScrumBudget_1.0.xlsx
+++ b/MyScrumBudget_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\myscrumbudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BB2D70-E2C5-4021-BECC-A35D5E26663B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD48471-5CA9-458B-B585-24FFC969C2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{7EFC9F54-FD64-4CB3-8707-A4DEAF994445}"/>
   </bookViews>
@@ -2620,22 +2620,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>23216</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
+      <xdr:colOff>491066</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A3D394-C824-4FDD-90AA-A1C94806FD27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF61DED-CE6C-41B1-98CD-422016208116}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,8 +2657,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="23216"/>
-          <a:ext cx="8391526" cy="4720234"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8415866" cy="4733925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
